--- a/Documents/registers.xlsx
+++ b/Documents/registers.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Global" sheetId="1" r:id="rId1"/>
+    <sheet name="Master" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="73">
   <si>
     <t>CTL</t>
   </si>
@@ -78,9 +78,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>CTL_RESERVE</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -90,24 +87,12 @@
     <t xml:space="preserve">W </t>
   </si>
   <si>
-    <t xml:space="preserve">read </t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
-    <t>set at '1'</t>
-  </si>
-  <si>
-    <t>clear at '0'</t>
-  </si>
-  <si>
     <t>RW</t>
   </si>
   <si>
-    <t>write at '0' or '1'</t>
-  </si>
-  <si>
     <t>RC</t>
   </si>
   <si>
@@ -117,9 +102,6 @@
     <t>ST_RW</t>
   </si>
   <si>
-    <t>ST_RESTART_DETC</t>
-  </si>
-  <si>
     <t>ST_STOP_DETC</t>
   </si>
   <si>
@@ -147,17 +129,119 @@
     <t>RX_DATA</t>
   </si>
   <si>
-    <t>Register for I2C Engine Global (Slave)</t>
-  </si>
-  <si>
-    <t>x</t>
+    <t xml:space="preserve">Read </t>
+  </si>
+  <si>
+    <t>Write at '0' or '1'</t>
+  </si>
+  <si>
+    <t>Set at '1'</t>
+  </si>
+  <si>
+    <t>Clear at '0'</t>
+  </si>
+  <si>
+    <t>CTL_RESERVED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Register for I2C Master Engine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Register for I2C Global Engine </t>
+  </si>
+  <si>
+    <t>Master inputs:</t>
+  </si>
+  <si>
+    <t>Master outputs</t>
+  </si>
+  <si>
+    <t>CTL_RESTART_C</t>
+  </si>
+  <si>
+    <t>CTL_STOP_C</t>
+  </si>
+  <si>
+    <t>CTL_START_C</t>
+  </si>
+  <si>
+    <t>ST_RX_FULL_S</t>
+  </si>
+  <si>
+    <t>ST_TX_EMPTY_S</t>
+  </si>
+  <si>
+    <t>ST_RESTART_DETC_W</t>
+  </si>
+  <si>
+    <t>ST_STOP_DETC_W</t>
+  </si>
+  <si>
+    <t>ST_START_DETC_W</t>
+  </si>
+  <si>
+    <t>ST_ACK_REC_S</t>
+  </si>
+  <si>
+    <t>RX_DATA_W</t>
+  </si>
+  <si>
+    <t>NON-USE REGISTER</t>
+  </si>
+  <si>
+    <t>???????</t>
+  </si>
+  <si>
+    <t>ST_BUSY_W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERRUPT CTL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERRUPT STATUS </t>
+  </si>
+  <si>
+    <t>BAUD_RATE</t>
+  </si>
+  <si>
+    <t>scl_tick_generator</t>
+  </si>
+  <si>
+    <t>scl_out_generator</t>
+  </si>
+  <si>
+    <t>modul(.vhd) needed for master</t>
+  </si>
+  <si>
+    <t>SCL_detect</t>
+  </si>
+  <si>
+    <t>start_generator</t>
+  </si>
+  <si>
+    <t>stop_generator</t>
+  </si>
+  <si>
+    <t>restart_generator</t>
+  </si>
+  <si>
+    <t>shift_register_receiver</t>
+  </si>
+  <si>
+    <t>shift_register_transmitter</t>
+  </si>
+  <si>
+    <t>flip_flop</t>
+  </si>
+  <si>
+    <t>ST_ERROR_DETC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,8 +264,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,6 +301,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -256,36 +378,71 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -588,17 +745,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:O36"/>
+  <dimension ref="B3:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
@@ -627,22 +784,25 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H6" s="7"/>
+    </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6">
         <v>7</v>
@@ -671,14 +831,14 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="29" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>20</v>
+      <c r="D9" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>12</v>
@@ -704,286 +864,294 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="F11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="K11" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="29" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="11"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="11"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L14" s="1"/>
       <c r="N14" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="29" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
+      <c r="D15" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
       <c r="L15" s="1"/>
       <c r="N15" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="11"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
+      <c r="D16" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
       <c r="L16" s="1"/>
       <c r="N16" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="11"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
+      <c r="D17" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
       <c r="L17" s="2"/>
       <c r="N17" s="5" t="s">
         <v>19</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
+      <c r="D18" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="11"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
+      <c r="D19" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="11"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="M20" s="7"/>
+      <c r="D20" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="N20" s="7"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="29" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -1000,7 +1168,7 @@
       <c r="M21" s="7"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="6" t="s">
         <v>3</v>
       </c>
@@ -1008,13 +1176,16 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="H22" s="17" t="s">
+        <v>57</v>
+      </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
+      <c r="M22" s="7"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="11"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="6" t="s">
         <v>2</v>
       </c>
@@ -1028,282 +1199,217 @@
       <c r="K23" s="8"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="11" t="s">
+      <c r="D24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="11"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="2"/>
+      <c r="D25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="1"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="11"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
+      <c r="D26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="29" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="11"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
+      <c r="D28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="11"/>
+      <c r="B29" s="29"/>
       <c r="C29" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
+      <c r="D29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="12"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="16">
-        <v>1</v>
-      </c>
-      <c r="F31" s="16">
-        <v>0</v>
-      </c>
-      <c r="G31" s="16">
-        <v>0</v>
-      </c>
-      <c r="H31" s="16">
-        <v>0</v>
-      </c>
-      <c r="I31" s="16">
-        <v>0</v>
-      </c>
-      <c r="J31" s="16">
-        <v>0</v>
-      </c>
-      <c r="K31" s="16">
-        <v>1</v>
-      </c>
-      <c r="L31" s="17"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="1"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="12"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="17"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="12" t="s">
+      <c r="B32" s="30"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J33" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="7"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="12"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16">
-        <v>0</v>
-      </c>
-      <c r="E34" s="16">
-        <v>0</v>
-      </c>
-      <c r="F34" s="16">
-        <v>1</v>
-      </c>
-      <c r="G34" s="16">
-        <v>1</v>
-      </c>
-      <c r="H34" s="16">
-        <v>1</v>
-      </c>
-      <c r="I34" s="16">
-        <v>1</v>
-      </c>
-      <c r="J34" s="16">
-        <v>1</v>
-      </c>
-      <c r="K34" s="16">
-        <v>0</v>
-      </c>
-      <c r="L34" s="17"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="12"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="17"/>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="30"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="30"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E29:K29"/>
+    <mergeCell ref="E24:K24"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="E28:K28"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="B33:B35"/>
@@ -1316,16 +1422,10 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K20"/>
-    <mergeCell ref="D27:K27"/>
-    <mergeCell ref="D28:K28"/>
-    <mergeCell ref="D29:K29"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="D16:K16"/>
     <mergeCell ref="D17:K17"/>
     <mergeCell ref="D18:K18"/>
-    <mergeCell ref="E24:K24"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="E26:K26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1334,24 +1434,1004 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.28515625" customWidth="1"/>
+    <col min="19" max="19" width="3.5703125" customWidth="1"/>
+    <col min="20" max="20" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F5" s="7"/>
+      <c r="H5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="H6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N7" s="14"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="D8" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10">
+        <v>7</v>
+      </c>
+      <c r="G9" s="10">
+        <v>6</v>
+      </c>
+      <c r="H9" s="10">
+        <v>5</v>
+      </c>
+      <c r="I9" s="10">
+        <v>4</v>
+      </c>
+      <c r="J9" s="10">
+        <v>3</v>
+      </c>
+      <c r="K9" s="10">
+        <v>2</v>
+      </c>
+      <c r="L9" s="10">
+        <v>1</v>
+      </c>
+      <c r="M9" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D10" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D11" s="29"/>
+      <c r="E11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D12" s="29"/>
+      <c r="E12" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D13" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="P13" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="T13" s="33"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D14" s="29"/>
+      <c r="E14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="P14" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="R14" s="1"/>
+      <c r="S14" s="20">
+        <v>1</v>
+      </c>
+      <c r="T14" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D15" s="29"/>
+      <c r="E15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" s="20">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="R15" s="1"/>
+      <c r="S15" s="20">
+        <v>2</v>
+      </c>
+      <c r="T15" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D16" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="P16" s="20">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="R16" s="1"/>
+      <c r="S16" s="20">
+        <v>3</v>
+      </c>
+      <c r="T16" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D17" s="29"/>
+      <c r="E17" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="P17" s="20">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="R17" s="1"/>
+      <c r="S17" s="20">
+        <v>4</v>
+      </c>
+      <c r="T17" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D18" s="29"/>
+      <c r="E18" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="P18" s="20">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="R18" s="1"/>
+      <c r="S18" s="20">
+        <v>5</v>
+      </c>
+      <c r="T18" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D19" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="P19" s="20">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="R19" s="1"/>
+      <c r="S19" s="20">
+        <v>6</v>
+      </c>
+      <c r="T19" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D20" s="29"/>
+      <c r="E20" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="P20" s="20">
+        <v>7</v>
+      </c>
+      <c r="Q20" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="R20" s="1"/>
+      <c r="S20" s="20">
+        <v>7</v>
+      </c>
+      <c r="T20" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D21" s="29"/>
+      <c r="E21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="P21" s="20">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="R21" s="1"/>
+      <c r="S21" s="20">
+        <v>8</v>
+      </c>
+      <c r="T21" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D22" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="P22" s="20">
+        <v>9</v>
+      </c>
+      <c r="Q22" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="R22" s="1"/>
+      <c r="S22" s="20">
+        <v>9</v>
+      </c>
+      <c r="T22" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D23" s="29"/>
+      <c r="E23" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="P23" s="20">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="R23" s="1"/>
+      <c r="S23" s="20">
+        <v>10</v>
+      </c>
+      <c r="T23" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D24" s="29"/>
+      <c r="E24" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="S24" s="23">
+        <v>11</v>
+      </c>
+      <c r="T24" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D25" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+    </row>
+    <row r="26" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D26" s="29"/>
+      <c r="E26" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+    </row>
+    <row r="27" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D27" s="29"/>
+      <c r="E27" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+    </row>
+    <row r="28" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D28" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+    </row>
+    <row r="29" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D29" s="32"/>
+      <c r="E29" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+    </row>
+    <row r="30" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D30" s="32"/>
+      <c r="E30" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+    </row>
+    <row r="31" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D31" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="14"/>
+    </row>
+    <row r="32" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D32" s="32"/>
+      <c r="E32" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+    </row>
+    <row r="33" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D33" s="32"/>
+      <c r="E33" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+    </row>
+    <row r="34" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D34" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+    </row>
+    <row r="35" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D35" s="32"/>
+      <c r="E35" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+    </row>
+    <row r="36" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D36" s="32"/>
+      <c r="E36" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+    </row>
+    <row r="37" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D37" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+    </row>
+    <row r="38" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D38" s="32"/>
+      <c r="E38" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+    </row>
+    <row r="39" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D39" s="32"/>
+      <c r="E39" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+    </row>
+    <row r="40" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D40" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+    </row>
+    <row r="41" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D41" s="32"/>
+      <c r="E41" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+    </row>
+    <row r="42" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D42" s="32"/>
+      <c r="E42" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="F21:M21"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="F16:M16"/>
+    <mergeCell ref="F17:M17"/>
+    <mergeCell ref="F18:M18"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+    <mergeCell ref="G27:M27"/>
+    <mergeCell ref="G28:M28"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="G29:M29"/>
+    <mergeCell ref="G30:M30"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="F19:M19"/>
+    <mergeCell ref="F20:M20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="7"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>